--- a/Boeing 717-200(717) non-coughing middle seats.xlsx
+++ b/Boeing 717-200(717) non-coughing middle seats.xlsx
@@ -9,10 +9,7 @@
   <sheets>
     <sheet name="Boeing 717-200(717)a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -619,7 +616,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Boeing 717-200(717)a'!$D$2:$D$66</c:f>
+              <c:f>'Boeing 717-200(717)a'!$E$2:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
@@ -696,127 +693,127 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>180</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>360</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>540</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>720</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1080</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1260</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1440</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1620</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1800</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1980</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2340</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2700</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3060</c:v>
+                  <c:v>15.3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3420</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3780</c:v>
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4140</c:v>
+                  <c:v>20.7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4500</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4860</c:v>
+                  <c:v>24.3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5220</c:v>
+                  <c:v>26.1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5580</c:v>
+                  <c:v>27.9</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5940</c:v>
+                  <c:v>29.7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6480</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7020</c:v>
+                  <c:v>35.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7740</c:v>
+                  <c:v>38.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8460</c:v>
+                  <c:v>42.3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9180</c:v>
+                  <c:v>45.9</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9900</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10620</c:v>
+                  <c:v>53.1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11340</c:v>
+                  <c:v>56.7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12060</c:v>
+                  <c:v>60.3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12780</c:v>
+                  <c:v>63.9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13680</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14580</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>15480</c:v>
+                  <c:v>77.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>16380</c:v>
+                  <c:v>81.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>17280</c:v>
+                  <c:v>86.4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>18180</c:v>
+                  <c:v>90.9</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19080</c:v>
+                  <c:v>95.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>19980</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20880</c:v>
+                  <c:v>104.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,7 +824,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Boeing 717-200(717)a'!$F$1</c:f>
+              <c:f>'Boeing 717-200(717)a'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -838,7 +835,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Boeing 717-200(717)a'!$F$2:$F$111</c:f>
+              <c:f>'Boeing 717-200(717)a'!$H$2:$H$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
@@ -915,273 +912,273 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>180</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>360</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>540</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>720</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1080</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1260</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1440</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1620</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1800</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1980</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2160</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2340</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2520</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2700</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2880</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3060</c:v>
+                  <c:v>15.3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3240</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3420</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3600</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3780</c:v>
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3960</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4140</c:v>
+                  <c:v>20.7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4320</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4680</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5040</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5580</c:v>
+                  <c:v>27.9</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6120</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6660</c:v>
+                  <c:v>33.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7200</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7740</c:v>
+                  <c:v>38.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8280</c:v>
+                  <c:v>41.4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8820</c:v>
+                  <c:v>44.1</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9360</c:v>
+                  <c:v>46.8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9900</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10440</c:v>
+                  <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10980</c:v>
+                  <c:v>54.9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11700</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12420</c:v>
+                  <c:v>62.1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13140</c:v>
+                  <c:v>65.7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13860</c:v>
+                  <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14580</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15300</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>16020</c:v>
+                  <c:v>80.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16740</c:v>
+                  <c:v>83.7</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>17460</c:v>
+                  <c:v>87.3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18180</c:v>
+                  <c:v>90.9</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>19080</c:v>
+                  <c:v>95.4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>19980</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20880</c:v>
+                  <c:v>104.4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21780</c:v>
+                  <c:v>108.9</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>22680</c:v>
+                  <c:v>113.4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23760</c:v>
+                  <c:v>118.8</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>24660</c:v>
+                  <c:v>123.3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>25740</c:v>
+                  <c:v>128.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>26640</c:v>
+                  <c:v>133.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>27720</c:v>
+                  <c:v>138.6</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>28620</c:v>
+                  <c:v>143.1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>29700</c:v>
+                  <c:v>148.5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>30600</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>31680</c:v>
+                  <c:v>158.4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>32580</c:v>
+                  <c:v>162.9</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>33660</c:v>
+                  <c:v>168.3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>34560</c:v>
+                  <c:v>172.8</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>35640</c:v>
+                  <c:v>178.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>36720</c:v>
+                  <c:v>183.6</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>37800</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>38880</c:v>
+                  <c:v>194.4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>40320</c:v>
+                  <c:v>201.6</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>41760</c:v>
+                  <c:v>208.8</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43380</c:v>
+                  <c:v>216.9</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>45000</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>46620</c:v>
+                  <c:v>233.1</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>48240</c:v>
+                  <c:v>241.2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>49860</c:v>
+                  <c:v>249.3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>51480</c:v>
+                  <c:v>257.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>53280</c:v>
+                  <c:v>266.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>55080</c:v>
+                  <c:v>275.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>57060</c:v>
+                  <c:v>285.3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>59040</c:v>
+                  <c:v>295.2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>61020</c:v>
+                  <c:v>305.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>63000</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>64980</c:v>
+                  <c:v>324.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>66960</c:v>
+                  <c:v>334.8</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>68940</c:v>
+                  <c:v>344.7</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>70920</c:v>
+                  <c:v>354.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="231936000"/>
-        <c:axId val="231937920"/>
+        <c:axId val="127113088"/>
+        <c:axId val="127127552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231936000"/>
+        <c:axId val="127113088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,14 +1217,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231937920"/>
+        <c:crossAx val="127127552"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231937920"/>
+        <c:axId val="127127552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231936000"/>
+        <c:crossAx val="127113088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1309,10 +1306,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22553117380703588"/>
-          <c:y val="0.29171078324251548"/>
-          <c:w val="0.23654217987641826"/>
-          <c:h val="0.15840917154827447"/>
+          <c:x val="0.22553117380703591"/>
+          <c:y val="0.29171078324251554"/>
+          <c:w val="0.23654217987641829"/>
+          <c:h val="0.15840917154827452"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1321,7 +1318,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1331,13 +1328,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -1360,902 +1357,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Boeing 717-200(717)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="E1" t="str">
-            <v>Marginal</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="E3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="E4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="E6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="E7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="E8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="E9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="E14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="E15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="E16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="E17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="E18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="E19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="E20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="E21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="E22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="E23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="E24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="E25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="E26">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="E27">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="E28">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="E29">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="E30">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="E31">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>31</v>
-          </cell>
-          <cell r="E32">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>32</v>
-          </cell>
-          <cell r="E33">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>33</v>
-          </cell>
-          <cell r="E34">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>34</v>
-          </cell>
-          <cell r="E35">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>35</v>
-          </cell>
-          <cell r="E36">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>36</v>
-          </cell>
-          <cell r="E37">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>37</v>
-          </cell>
-          <cell r="E38">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>38</v>
-          </cell>
-          <cell r="E39">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>39</v>
-          </cell>
-          <cell r="E40">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>40</v>
-          </cell>
-          <cell r="E41">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>41</v>
-          </cell>
-          <cell r="E42">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>42</v>
-          </cell>
-          <cell r="E43">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>43</v>
-          </cell>
-          <cell r="E44">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44</v>
-          </cell>
-          <cell r="E45">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45</v>
-          </cell>
-          <cell r="E46">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>46</v>
-          </cell>
-          <cell r="E47">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>47</v>
-          </cell>
-          <cell r="E48">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>48</v>
-          </cell>
-          <cell r="E49">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>49</v>
-          </cell>
-          <cell r="E50">
-            <v>360</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>50</v>
-          </cell>
-          <cell r="E51">
-            <v>360</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>51</v>
-          </cell>
-          <cell r="E52">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>52</v>
-          </cell>
-          <cell r="E53">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>53</v>
-          </cell>
-          <cell r="E54">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>54</v>
-          </cell>
-          <cell r="E55">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>55</v>
-          </cell>
-          <cell r="E56">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>56</v>
-          </cell>
-          <cell r="E57">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>57</v>
-          </cell>
-          <cell r="E58">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>58</v>
-          </cell>
-          <cell r="E59">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>59</v>
-          </cell>
-          <cell r="E60">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>60</v>
-          </cell>
-          <cell r="E61">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>61</v>
-          </cell>
-          <cell r="E62">
-            <v>540</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>62</v>
-          </cell>
-          <cell r="E63">
-            <v>720</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>63</v>
-          </cell>
-          <cell r="E64">
-            <v>720</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>64</v>
-          </cell>
-          <cell r="E65">
-            <v>720</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>65</v>
-          </cell>
-          <cell r="E66">
-            <v>720</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>66</v>
-          </cell>
-          <cell r="E67">
-            <v>720</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>67</v>
-          </cell>
-          <cell r="E68">
-            <v>720</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>68</v>
-          </cell>
-          <cell r="E69">
-            <v>720</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>69</v>
-          </cell>
-          <cell r="E70">
-            <v>720</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>70</v>
-          </cell>
-          <cell r="E71">
-            <v>720</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>71</v>
-          </cell>
-          <cell r="E72">
-            <v>720</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>72</v>
-          </cell>
-          <cell r="E73">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>73</v>
-          </cell>
-          <cell r="E74">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>74</v>
-          </cell>
-          <cell r="E75">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>75</v>
-          </cell>
-          <cell r="E76">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>76</v>
-          </cell>
-          <cell r="E77">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>77</v>
-          </cell>
-          <cell r="E78">
-            <v>1080</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>78</v>
-          </cell>
-          <cell r="E79">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>79</v>
-          </cell>
-          <cell r="E80">
-            <v>1080</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>80</v>
-          </cell>
-          <cell r="E81">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>81</v>
-          </cell>
-          <cell r="E82">
-            <v>1080</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>82</v>
-          </cell>
-          <cell r="E83">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>83</v>
-          </cell>
-          <cell r="E84">
-            <v>1080</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>84</v>
-          </cell>
-          <cell r="E85">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>85</v>
-          </cell>
-          <cell r="E86">
-            <v>1080</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>86</v>
-          </cell>
-          <cell r="E87">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>87</v>
-          </cell>
-          <cell r="E88">
-            <v>1080</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>88</v>
-          </cell>
-          <cell r="E89">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>89</v>
-          </cell>
-          <cell r="E90">
-            <v>1080</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>90</v>
-          </cell>
-          <cell r="E91">
-            <v>1080</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>91</v>
-          </cell>
-          <cell r="E92">
-            <v>1080</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>92</v>
-          </cell>
-          <cell r="E93">
-            <v>1080</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>93</v>
-          </cell>
-          <cell r="E94">
-            <v>1440</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>94</v>
-          </cell>
-          <cell r="E95">
-            <v>1440</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>95</v>
-          </cell>
-          <cell r="E96">
-            <v>1620</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>96</v>
-          </cell>
-          <cell r="E97">
-            <v>1620</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>97</v>
-          </cell>
-          <cell r="E98">
-            <v>1620</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>98</v>
-          </cell>
-          <cell r="E99">
-            <v>1620</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>99</v>
-          </cell>
-          <cell r="E100">
-            <v>1620</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>100</v>
-          </cell>
-          <cell r="E101">
-            <v>1620</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>101</v>
-          </cell>
-          <cell r="E102">
-            <v>1800</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>102</v>
-          </cell>
-          <cell r="E103">
-            <v>1800</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>103</v>
-          </cell>
-          <cell r="E104">
-            <v>1980</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>104</v>
-          </cell>
-          <cell r="E105">
-            <v>1980</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>105</v>
-          </cell>
-          <cell r="E106">
-            <v>1980</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>106</v>
-          </cell>
-          <cell r="E107">
-            <v>1980</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>107</v>
-          </cell>
-          <cell r="E108">
-            <v>1980</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>108</v>
-          </cell>
-          <cell r="E109">
-            <v>1980</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>109</v>
-          </cell>
-          <cell r="E110">
-            <v>1980</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>110</v>
-          </cell>
-          <cell r="E111">
-            <v>1980</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2543,15 +1644,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2564,17 +1665,17 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2587,15 +1688,23 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="E2">
+        <f>D2/200</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>-F2+D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>G2/200</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>-G2+D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2609,18 +1718,26 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E34" si="0">D3 - D2</f>
+        <f t="shared" ref="E3:E66" si="0">D3/200</f>
         <v>0</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F34" si="1">D3 - D2</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">-F3+D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">G3/200</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="3">-G3+D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2638,39 +1755,55 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2688,14 +1821,22 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2713,14 +1854,22 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2738,14 +1887,22 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2763,14 +1920,22 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2788,14 +1953,22 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2813,14 +1986,22 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2838,14 +2019,22 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2863,14 +2052,22 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2888,14 +2085,22 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2913,14 +2118,22 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2938,14 +2151,22 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2963,14 +2184,22 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2988,14 +2217,22 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3013,14 +2250,22 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3038,14 +2283,22 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3063,14 +2316,22 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3088,14 +2349,22 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3113,14 +2382,22 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3138,14 +2415,22 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3163,14 +2448,22 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3185,17 +2478,25 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>180</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3210,17 +2511,25 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>360</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3235,17 +2544,25 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>540</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3260,17 +2577,25 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>720</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3285,17 +2610,25 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>900</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3310,17 +2643,25 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1080</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3335,17 +2676,25 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1260</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>6.3</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3360,17 +2709,25 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1440</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3385,17 +2742,25 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1620</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>8.1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3409,18 +2774,26 @@
         <v>1800</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:E66" si="2">D35 - D34</f>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F66" si="4">D35 - D34</f>
         <v>180</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1800</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3434,18 +2807,26 @@
         <v>1980</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1980</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3459,18 +2840,26 @@
         <v>2340</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>2160</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>10.8</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3484,18 +2873,26 @@
         <v>2700</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2340</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>11.7</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3509,18 +2906,26 @@
         <v>3060</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2520</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>12.6</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
         <v>540</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3534,18 +2939,26 @@
         <v>3420</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>2700</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3559,18 +2972,26 @@
         <v>3780</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>2880</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3584,18 +3005,26 @@
         <v>4140</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>20.7</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>3060</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>15.3</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
         <v>1080</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3609,18 +3038,26 @@
         <v>4500</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>3240</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>16.2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3634,18 +3071,26 @@
         <v>4860</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>24.3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>3420</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3659,18 +3104,26 @@
         <v>5220</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>26.1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>3600</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
         <v>1620</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3684,18 +3137,26 @@
         <v>5580</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>27.9</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>3780</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3709,18 +3170,26 @@
         <v>5940</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>3960</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>19.8</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
         <v>1980</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3734,18 +3203,26 @@
         <v>6480</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>32.4</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>4140</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>20.7</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
         <v>2340</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3759,18 +3236,26 @@
         <v>7020</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>35.1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>4320</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>21.6</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
         <v>2700</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3784,18 +3269,26 @@
         <v>7740</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>4680</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>23.4</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
         <v>3060</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3809,18 +3302,26 @@
         <v>8460</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>42.3</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>5040</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>25.2</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
         <v>3420</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3834,18 +3335,26 @@
         <v>9180</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>45.9</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>5580</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>27.9</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
         <v>3600</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3859,18 +3368,26 @@
         <v>9900</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>6120</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>30.6</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
         <v>3780</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3884,18 +3401,26 @@
         <v>10620</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>53.1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>6660</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
         <v>3960</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3909,18 +3434,26 @@
         <v>11340</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>56.7</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>7200</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
         <v>4140</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3934,18 +3467,26 @@
         <v>12060</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>60.3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>7740</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
         <v>4320</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3959,18 +3500,26 @@
         <v>12780</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>63.9</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>8280</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>41.4</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3984,18 +3533,26 @@
         <v>13680</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>8820</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>44.1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
         <v>4860</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4009,18 +3566,26 @@
         <v>14580</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>9360</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>46.8</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
         <v>5220</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4034,18 +3599,26 @@
         <v>15480</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>9900</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>49.5</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
         <v>5580</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4059,18 +3632,26 @@
         <v>16380</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>10440</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>52.2</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
         <v>5940</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4084,18 +3665,26 @@
         <v>17280</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>86.4</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>10980</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>54.9</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
         <v>6300</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4109,18 +3698,26 @@
         <v>18180</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>90.9</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>11700</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="1"/>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>58.5</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
         <v>6480</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4134,18 +3731,26 @@
         <v>19080</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>95.4</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>12420</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="1"/>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>62.1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
         <v>6660</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4159,18 +3764,26 @@
         <v>19980</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>99.9</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>13140</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="1"/>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>65.7</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
         <v>6840</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4184,240 +3797,428 @@
         <v>20880</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>104.4</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>13860</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="1"/>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>69.3</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
         <v>7020</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="F67">
+    <row r="67" spans="1:9">
+      <c r="G67">
         <v>14580</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="F68">
+      <c r="H67">
+        <f t="shared" ref="H67:H111" si="5">G67/200</f>
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="G68">
         <v>15300</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="F69">
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="G69">
         <v>16020</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="F70">
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="G70">
         <v>16740</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="F71">
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="G71">
         <v>17460</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="F72">
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="G72">
         <v>18180</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="F73">
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="G73">
         <v>19080</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="F74">
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="G74">
         <v>19980</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="F75">
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="G75">
         <v>20880</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="F76">
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="G76">
         <v>21780</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="F77">
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="G77">
         <v>22680</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="F78">
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="G78">
         <v>23760</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="F79">
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="G79">
         <v>24660</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="F80">
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>123.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="G80">
         <v>25740</v>
       </c>
-    </row>
-    <row r="81" spans="6:6">
-      <c r="F81">
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>128.69999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8">
+      <c r="G81">
         <v>26640</v>
       </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82">
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8">
+      <c r="G82">
         <v>27720</v>
       </c>
-    </row>
-    <row r="83" spans="6:6">
-      <c r="F83">
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8">
+      <c r="G83">
         <v>28620</v>
       </c>
-    </row>
-    <row r="84" spans="6:6">
-      <c r="F84">
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>143.1</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8">
+      <c r="G84">
         <v>29700</v>
       </c>
-    </row>
-    <row r="85" spans="6:6">
-      <c r="F85">
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8">
+      <c r="G85">
         <v>30600</v>
       </c>
-    </row>
-    <row r="86" spans="6:6">
-      <c r="F86">
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8">
+      <c r="G86">
         <v>31680</v>
       </c>
-    </row>
-    <row r="87" spans="6:6">
-      <c r="F87">
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8">
+      <c r="G87">
         <v>32580</v>
       </c>
-    </row>
-    <row r="88" spans="6:6">
-      <c r="F88">
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>162.9</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8">
+      <c r="G88">
         <v>33660</v>
       </c>
-    </row>
-    <row r="89" spans="6:6">
-      <c r="F89">
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8">
+      <c r="G89">
         <v>34560</v>
       </c>
-    </row>
-    <row r="90" spans="6:6">
-      <c r="F90">
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8">
+      <c r="G90">
         <v>35640</v>
       </c>
-    </row>
-    <row r="91" spans="6:6">
-      <c r="F91">
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>178.2</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8">
+      <c r="G91">
         <v>36720</v>
       </c>
-    </row>
-    <row r="92" spans="6:6">
-      <c r="F92">
+      <c r="H91">
+        <f t="shared" si="5"/>
+        <v>183.6</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8">
+      <c r="G92">
         <v>37800</v>
       </c>
-    </row>
-    <row r="93" spans="6:6">
-      <c r="F93">
+      <c r="H92">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="7:8">
+      <c r="G93">
         <v>38880</v>
       </c>
-    </row>
-    <row r="94" spans="6:6">
-      <c r="F94">
+      <c r="H93">
+        <f t="shared" si="5"/>
+        <v>194.4</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8">
+      <c r="G94">
         <v>40320</v>
       </c>
-    </row>
-    <row r="95" spans="6:6">
-      <c r="F95">
+      <c r="H94">
+        <f t="shared" si="5"/>
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="G95">
         <v>41760</v>
       </c>
-    </row>
-    <row r="96" spans="6:6">
-      <c r="F96">
+      <c r="H95">
+        <f t="shared" si="5"/>
+        <v>208.8</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
+      <c r="G96">
         <v>43380</v>
       </c>
-    </row>
-    <row r="97" spans="6:6">
-      <c r="F97">
+      <c r="H96">
+        <f t="shared" si="5"/>
+        <v>216.9</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
+      <c r="G97">
         <v>45000</v>
       </c>
-    </row>
-    <row r="98" spans="6:6">
-      <c r="F98">
+      <c r="H97">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8">
+      <c r="G98">
         <v>46620</v>
       </c>
-    </row>
-    <row r="99" spans="6:6">
-      <c r="F99">
+      <c r="H98">
+        <f t="shared" si="5"/>
+        <v>233.1</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8">
+      <c r="G99">
         <v>48240</v>
       </c>
-    </row>
-    <row r="100" spans="6:6">
-      <c r="F100">
+      <c r="H99">
+        <f t="shared" si="5"/>
+        <v>241.2</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8">
+      <c r="G100">
         <v>49860</v>
       </c>
-    </row>
-    <row r="101" spans="6:6">
-      <c r="F101">
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>249.3</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8">
+      <c r="G101">
         <v>51480</v>
       </c>
-    </row>
-    <row r="102" spans="6:6">
-      <c r="F102">
+      <c r="H101">
+        <f t="shared" si="5"/>
+        <v>257.39999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8">
+      <c r="G102">
         <v>53280</v>
       </c>
-    </row>
-    <row r="103" spans="6:6">
-      <c r="F103">
+      <c r="H102">
+        <f t="shared" si="5"/>
+        <v>266.39999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8">
+      <c r="G103">
         <v>55080</v>
       </c>
-    </row>
-    <row r="104" spans="6:6">
-      <c r="F104">
+      <c r="H103">
+        <f t="shared" si="5"/>
+        <v>275.39999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8">
+      <c r="G104">
         <v>57060</v>
       </c>
-    </row>
-    <row r="105" spans="6:6">
-      <c r="F105">
+      <c r="H104">
+        <f t="shared" si="5"/>
+        <v>285.3</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8">
+      <c r="G105">
         <v>59040</v>
       </c>
-    </row>
-    <row r="106" spans="6:6">
-      <c r="F106">
+      <c r="H105">
+        <f t="shared" si="5"/>
+        <v>295.2</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8">
+      <c r="G106">
         <v>61020</v>
       </c>
-    </row>
-    <row r="107" spans="6:6">
-      <c r="F107">
+      <c r="H106">
+        <f t="shared" si="5"/>
+        <v>305.10000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8">
+      <c r="G107">
         <v>63000</v>
       </c>
-    </row>
-    <row r="108" spans="6:6">
-      <c r="F108">
+      <c r="H107">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8">
+      <c r="G108">
         <v>64980</v>
       </c>
-    </row>
-    <row r="109" spans="6:6">
-      <c r="F109">
+      <c r="H108">
+        <f t="shared" si="5"/>
+        <v>324.89999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8">
+      <c r="G109">
         <v>66960</v>
       </c>
-    </row>
-    <row r="110" spans="6:6">
-      <c r="F110">
+      <c r="H109">
+        <f t="shared" si="5"/>
+        <v>334.8</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8">
+      <c r="G110">
         <v>68940</v>
       </c>
-    </row>
-    <row r="111" spans="6:6">
-      <c r="F111">
+      <c r="H110">
+        <f t="shared" si="5"/>
+        <v>344.7</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8">
+      <c r="G111">
         <v>70920</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="5"/>
+        <v>354.6</v>
       </c>
     </row>
   </sheetData>

--- a/Boeing 717-200(717) non-coughing middle seats.xlsx
+++ b/Boeing 717-200(717) non-coughing middle seats.xlsx
@@ -1174,11 +1174,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="127113088"/>
-        <c:axId val="127127552"/>
+        <c:axId val="122162560"/>
+        <c:axId val="123785216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127113088"/>
+        <c:axId val="122162560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,14 +1217,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127127552"/>
+        <c:crossAx val="123785216"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127127552"/>
+        <c:axId val="123785216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127113088"/>
+        <c:crossAx val="122162560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1307,9 +1307,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.22553117380703591"/>
-          <c:y val="0.29171078324251554"/>
-          <c:w val="0.23654217987641829"/>
-          <c:h val="0.15840917154827452"/>
+          <c:y val="0.29171078324251565"/>
+          <c:w val="0.23654217987641832"/>
+          <c:h val="0.15840917154827458"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1318,7 +1318,757 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Boeing 717-200 Non-Coughing Risk Model - Skip middle seats comparison </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Boeing 717-200(717)a'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No middle seats</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boeing 717-200(717)a'!$J$2:$J$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9230769230769235E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12857142857142859</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15517241379310345</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20322580645161289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.24545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36486486486486486</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40263157894736845</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.43846153846153851</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.47249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.50487804878048781</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56511627906976747</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.59318181818181825</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.64565217391304341</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68936170212765957</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.73125000000000007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.78979591836734697</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95192307692307687</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0018867924528303</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0963636363636362</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1410714285714285</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2568965517241379</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.3118644067796612</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.365</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.416393442622951</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4661290322580647</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5142857142857145</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5609375000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6061538461538463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Boeing 717-200(717)a'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All seats</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boeing 717-200(717)a'!$K$2:$K$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9230769230769235E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12857142857142859</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15517241379310345</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20322580645161289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.24545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31621621621621621</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33157894736842103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.37317073170731707</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.38571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.39767441860465119</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.40909090909090912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43043478260869567</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.44042553191489359</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47755102040816322</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54705882352941171</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.58846153846153848</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6283018867924528</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.70363636363636373</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.73928571428571421</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77368421052631586</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.80689655172413788</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.83898305084745761</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.94354838709677424</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.98571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0265625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.066153846153846</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1045454545454547</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1417910447761195</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.177941176470588</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2130434782608697</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2471428571428571</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2802816901408451</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3684931506849316</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4108108108108108</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4921052631578948</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5807692307692307</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6291139240506327</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.711111111111111</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7451219512195122</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7891566265060241</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8635294117647059</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.894186046511628</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9344827586206899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.9636363636363638</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0022471910112358</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1130434782608698</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1677419354838707</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.2212765957446812</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.2831578947368421</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.34375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4030927835051545</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4612244897959181</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.5181818181818181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6376237623762373</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.7699029126213595</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.8384615384615381</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.9057142857142861</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.9716981132075473</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.0364485981308409</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1623853211009174</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.2236363636363636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="119998720"/>
+        <c:axId val="121221888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="119998720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Number of Assigned</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> Seats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121221888"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121221888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Risk </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119998720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22553117380703591"/>
+          <c:y val="0.29171078324251587"/>
+          <c:w val="0.23654217987641843"/>
+          <c:h val="0.15840917154827469"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1328,16 +2078,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1351,6 +2101,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1644,15 +2424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" topLeftCell="I53" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +2455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1703,8 +2483,16 @@
         <f>-G2+D2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <f>E2/A2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>H2/A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1736,8 +2524,16 @@
         <f t="shared" ref="I3:I66" si="3">-G3+D3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="4">E3/A3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="5">H3/A3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1769,8 +2565,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1802,8 +2606,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1835,8 +2647,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1868,8 +2688,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1901,8 +2729,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1934,8 +2770,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1967,8 +2811,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2000,8 +2852,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2033,8 +2893,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2066,8 +2934,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2099,8 +2975,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2132,8 +3016,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2165,8 +3057,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2198,8 +3098,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2231,8 +3139,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2264,8 +3180,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2297,8 +3221,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2330,8 +3262,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2363,8 +3303,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2396,8 +3344,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2429,8 +3385,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2462,8 +3426,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2495,8 +3467,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2528,8 +3508,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>6.9230769230769235E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>6.9230769230769235E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2561,8 +3549,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2594,8 +3590,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2627,8 +3631,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>0.15517241379310345</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>0.15517241379310345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2660,8 +3672,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>0.18000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2693,8 +3713,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>0.20322580645161289</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>0.20322580645161289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2726,8 +3754,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2759,8 +3795,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>0.24545454545454545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2778,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F66" si="4">D35 - D34</f>
+        <f t="shared" ref="F35:F66" si="6">D35 - D34</f>
         <v>180</v>
       </c>
       <c r="G35">
@@ -2792,8 +3836,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>0.26470588235294118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2811,7 +3863,7 @@
         <v>9.9</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="G36">
@@ -2825,8 +3877,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0.28285714285714286</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>0.28285714285714286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2844,7 +3904,7 @@
         <v>11.7</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G37">
@@ -2858,8 +3918,16 @@
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0.32499999999999996</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2877,7 +3945,7 @@
         <v>13.5</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G38">
@@ -2891,8 +3959,16 @@
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0.36486486486486486</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>0.31621621621621621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2910,7 +3986,7 @@
         <v>15.3</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G39">
@@ -2924,8 +4000,16 @@
         <f t="shared" si="3"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>0.40263157894736845</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>0.33157894736842103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2943,7 +4027,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="F40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G40">
@@ -2957,8 +4041,16 @@
         <f t="shared" si="3"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>0.43846153846153851</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2976,7 +4068,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G41">
@@ -2990,8 +4082,16 @@
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.47249999999999998</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3009,7 +4109,7 @@
         <v>20.7</v>
       </c>
       <c r="F42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G42">
@@ -3023,8 +4123,16 @@
         <f t="shared" si="3"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>0.50487804878048781</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>0.37317073170731707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3042,7 +4150,7 @@
         <v>22.5</v>
       </c>
       <c r="F43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G43">
@@ -3056,8 +4164,16 @@
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>0.38571428571428568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3075,7 +4191,7 @@
         <v>24.3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G44">
@@ -3089,8 +4205,16 @@
         <f t="shared" si="3"/>
         <v>1440</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>0.56511627906976747</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>0.39767441860465119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3108,7 +4232,7 @@
         <v>26.1</v>
       </c>
       <c r="F45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G45">
@@ -3122,8 +4246,16 @@
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>0.59318181818181825</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>0.40909090909090912</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3141,7 +4273,7 @@
         <v>27.9</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G46">
@@ -3155,8 +4287,16 @@
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>0.62</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3174,7 +4314,7 @@
         <v>29.7</v>
       </c>
       <c r="F47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="G47">
@@ -3188,8 +4328,16 @@
         <f t="shared" si="3"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>0.64565217391304341</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>0.43043478260869567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3207,7 +4355,7 @@
         <v>32.4</v>
       </c>
       <c r="F48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
       <c r="G48">
@@ -3221,8 +4369,16 @@
         <f t="shared" si="3"/>
         <v>2340</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>0.68936170212765957</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>0.44042553191489359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3240,7 +4396,7 @@
         <v>35.1</v>
       </c>
       <c r="F49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
       <c r="G49">
@@ -3254,8 +4410,16 @@
         <f t="shared" si="3"/>
         <v>2700</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3273,7 +4437,7 @@
         <v>38.700000000000003</v>
       </c>
       <c r="F50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G50">
@@ -3287,8 +4451,16 @@
         <f t="shared" si="3"/>
         <v>3060</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>0.78979591836734697</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>0.47755102040816322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3306,7 +4478,7 @@
         <v>42.3</v>
       </c>
       <c r="F51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G51">
@@ -3320,8 +4492,16 @@
         <f t="shared" si="3"/>
         <v>3420</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3339,7 +4519,7 @@
         <v>45.9</v>
       </c>
       <c r="F52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G52">
@@ -3353,8 +4533,16 @@
         <f t="shared" si="3"/>
         <v>3600</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>0.54705882352941171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3372,7 +4560,7 @@
         <v>49.5</v>
       </c>
       <c r="F53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G53">
@@ -3386,8 +4574,16 @@
         <f t="shared" si="3"/>
         <v>3780</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>0.95192307692307687</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>0.58846153846153848</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3405,7 +4601,7 @@
         <v>53.1</v>
       </c>
       <c r="F54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G54">
@@ -3419,8 +4615,16 @@
         <f t="shared" si="3"/>
         <v>3960</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>1.0018867924528303</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="5"/>
+        <v>0.6283018867924528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3438,7 +4642,7 @@
         <v>56.7</v>
       </c>
       <c r="F55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G55">
@@ -3452,8 +4656,16 @@
         <f t="shared" si="3"/>
         <v>4140</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>1.05</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3471,7 +4683,7 @@
         <v>60.3</v>
       </c>
       <c r="F56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G56">
@@ -3485,8 +4697,16 @@
         <f t="shared" si="3"/>
         <v>4320</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>1.0963636363636362</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>0.70363636363636373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3504,7 +4724,7 @@
         <v>63.9</v>
       </c>
       <c r="F57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G57">
@@ -3518,8 +4738,16 @@
         <f t="shared" si="3"/>
         <v>4500</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>1.1410714285714285</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>0.73928571428571421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3537,7 +4765,7 @@
         <v>68.400000000000006</v>
       </c>
       <c r="F58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G58">
@@ -3551,8 +4779,16 @@
         <f t="shared" si="3"/>
         <v>4860</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>0.77368421052631586</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3570,7 +4806,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="F59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G59">
@@ -3584,8 +4820,16 @@
         <f t="shared" si="3"/>
         <v>5220</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>1.2568965517241379</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>0.80689655172413788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3603,7 +4847,7 @@
         <v>77.400000000000006</v>
       </c>
       <c r="F60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G60">
@@ -3617,8 +4861,16 @@
         <f t="shared" si="3"/>
         <v>5580</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>1.3118644067796612</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>0.83898305084745761</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3636,7 +4888,7 @@
         <v>81.900000000000006</v>
       </c>
       <c r="F61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G61">
@@ -3650,8 +4902,16 @@
         <f t="shared" si="3"/>
         <v>5940</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>1.365</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3669,7 +4929,7 @@
         <v>86.4</v>
       </c>
       <c r="F62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G62">
@@ -3683,8 +4943,16 @@
         <f t="shared" si="3"/>
         <v>6300</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>1.416393442622951</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3702,7 +4970,7 @@
         <v>90.9</v>
       </c>
       <c r="F63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G63">
@@ -3716,8 +4984,16 @@
         <f t="shared" si="3"/>
         <v>6480</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>1.4661290322580647</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>0.94354838709677424</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3735,7 +5011,7 @@
         <v>95.4</v>
       </c>
       <c r="F64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G64">
@@ -3749,8 +5025,16 @@
         <f t="shared" si="3"/>
         <v>6660</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>1.5142857142857145</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>0.98571428571428577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3768,7 +5052,7 @@
         <v>99.9</v>
       </c>
       <c r="F65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G65">
@@ -3782,8 +5066,16 @@
         <f t="shared" si="3"/>
         <v>6840</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>1.5609375000000001</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>1.0265625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3801,7 +5093,7 @@
         <v>104.4</v>
       </c>
       <c r="F66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G66">
@@ -3815,410 +5107,733 @@
         <f t="shared" si="3"/>
         <v>7020</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>1.6061538461538463</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>1.066153846153846</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="G67">
         <v>14580</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H111" si="5">G67/200</f>
+        <f t="shared" ref="H67:H111" si="7">G67/200</f>
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="K67">
+        <f t="shared" ref="K67:K111" si="8">H67/A67</f>
+        <v>1.1045454545454547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="G68">
         <v>15300</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>76.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="K68">
+        <f t="shared" si="8"/>
+        <v>1.1417910447761195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="G69">
         <v>16020</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80.099999999999994</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="K69">
+        <f t="shared" si="8"/>
+        <v>1.177941176470588</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="G70">
         <v>16740</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>83.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="K70">
+        <f t="shared" si="8"/>
+        <v>1.2130434782608697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="G71">
         <v>17460</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>87.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="K71">
+        <f t="shared" si="8"/>
+        <v>1.2471428571428571</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="G72">
         <v>18180</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90.9</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>1.2802816901408451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="G73">
         <v>19080</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>95.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>1.3250000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="G74">
         <v>19980</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>99.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="K74">
+        <f t="shared" si="8"/>
+        <v>1.3684931506849316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="G75">
         <v>20880</v>
       </c>
       <c r="H75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>104.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="K75">
+        <f t="shared" si="8"/>
+        <v>1.4108108108108108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="G76">
         <v>21780</v>
       </c>
       <c r="H76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>108.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="K76">
+        <f t="shared" si="8"/>
+        <v>1.4520000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>76</v>
+      </c>
       <c r="G77">
         <v>22680</v>
       </c>
       <c r="H77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>113.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="K77">
+        <f t="shared" si="8"/>
+        <v>1.4921052631578948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>77</v>
+      </c>
       <c r="G78">
         <v>23760</v>
       </c>
       <c r="H78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>118.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="K78">
+        <f t="shared" si="8"/>
+        <v>1.5428571428571429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>78</v>
+      </c>
       <c r="G79">
         <v>24660</v>
       </c>
       <c r="H79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>123.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="K79">
+        <f t="shared" si="8"/>
+        <v>1.5807692307692307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>79</v>
+      </c>
       <c r="G80">
         <v>25740</v>
       </c>
       <c r="H80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128.69999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="7:8">
+      <c r="K80">
+        <f t="shared" si="8"/>
+        <v>1.6291139240506327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="G81">
         <v>26640</v>
       </c>
       <c r="H81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>133.19999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="7:8">
+      <c r="K81">
+        <f t="shared" si="8"/>
+        <v>1.6649999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="G82">
         <v>27720</v>
       </c>
       <c r="H82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>138.6</v>
       </c>
-    </row>
-    <row r="83" spans="7:8">
+      <c r="K82">
+        <f t="shared" si="8"/>
+        <v>1.711111111111111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="G83">
         <v>28620</v>
       </c>
       <c r="H83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>143.1</v>
       </c>
-    </row>
-    <row r="84" spans="7:8">
+      <c r="K83">
+        <f t="shared" si="8"/>
+        <v>1.7451219512195122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="G84">
         <v>29700</v>
       </c>
       <c r="H84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>148.5</v>
       </c>
-    </row>
-    <row r="85" spans="7:8">
+      <c r="K84">
+        <f t="shared" si="8"/>
+        <v>1.7891566265060241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="G85">
         <v>30600</v>
       </c>
       <c r="H85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>153</v>
       </c>
-    </row>
-    <row r="86" spans="7:8">
+      <c r="K85">
+        <f t="shared" si="8"/>
+        <v>1.8214285714285714</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="G86">
         <v>31680</v>
       </c>
       <c r="H86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>158.4</v>
       </c>
-    </row>
-    <row r="87" spans="7:8">
+      <c r="K86">
+        <f t="shared" si="8"/>
+        <v>1.8635294117647059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="G87">
         <v>32580</v>
       </c>
       <c r="H87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>162.9</v>
       </c>
-    </row>
-    <row r="88" spans="7:8">
+      <c r="K87">
+        <f t="shared" si="8"/>
+        <v>1.894186046511628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="G88">
         <v>33660</v>
       </c>
       <c r="H88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>168.3</v>
       </c>
-    </row>
-    <row r="89" spans="7:8">
+      <c r="K88">
+        <f t="shared" si="8"/>
+        <v>1.9344827586206899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="G89">
         <v>34560</v>
       </c>
       <c r="H89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>172.8</v>
       </c>
-    </row>
-    <row r="90" spans="7:8">
+      <c r="K89">
+        <f t="shared" si="8"/>
+        <v>1.9636363636363638</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="G90">
         <v>35640</v>
       </c>
       <c r="H90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>178.2</v>
       </c>
-    </row>
-    <row r="91" spans="7:8">
+      <c r="K90">
+        <f t="shared" si="8"/>
+        <v>2.0022471910112358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="G91">
         <v>36720</v>
       </c>
       <c r="H91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>183.6</v>
       </c>
-    </row>
-    <row r="92" spans="7:8">
+      <c r="K91">
+        <f t="shared" si="8"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="G92">
         <v>37800</v>
       </c>
       <c r="H92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>189</v>
       </c>
-    </row>
-    <row r="93" spans="7:8">
+      <c r="K92">
+        <f t="shared" si="8"/>
+        <v>2.0769230769230771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="G93">
         <v>38880</v>
       </c>
       <c r="H93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>194.4</v>
       </c>
-    </row>
-    <row r="94" spans="7:8">
+      <c r="K93">
+        <f t="shared" si="8"/>
+        <v>2.1130434782608698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="G94">
         <v>40320</v>
       </c>
       <c r="H94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>201.6</v>
       </c>
-    </row>
-    <row r="95" spans="7:8">
+      <c r="K94">
+        <f t="shared" si="8"/>
+        <v>2.1677419354838707</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="G95">
         <v>41760</v>
       </c>
       <c r="H95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>208.8</v>
       </c>
-    </row>
-    <row r="96" spans="7:8">
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>2.2212765957446812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="G96">
         <v>43380</v>
       </c>
       <c r="H96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>216.9</v>
       </c>
-    </row>
-    <row r="97" spans="7:8">
+      <c r="K96">
+        <f t="shared" si="8"/>
+        <v>2.2831578947368421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="G97">
         <v>45000</v>
       </c>
       <c r="H97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="98" spans="7:8">
+      <c r="K97">
+        <f t="shared" si="8"/>
+        <v>2.34375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>97</v>
+      </c>
       <c r="G98">
         <v>46620</v>
       </c>
       <c r="H98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>233.1</v>
       </c>
-    </row>
-    <row r="99" spans="7:8">
+      <c r="K98">
+        <f t="shared" si="8"/>
+        <v>2.4030927835051545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>98</v>
+      </c>
       <c r="G99">
         <v>48240</v>
       </c>
       <c r="H99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>241.2</v>
       </c>
-    </row>
-    <row r="100" spans="7:8">
+      <c r="K99">
+        <f t="shared" si="8"/>
+        <v>2.4612244897959181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>99</v>
+      </c>
       <c r="G100">
         <v>49860</v>
       </c>
       <c r="H100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>249.3</v>
       </c>
-    </row>
-    <row r="101" spans="7:8">
+      <c r="K100">
+        <f t="shared" si="8"/>
+        <v>2.5181818181818181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="G101">
         <v>51480</v>
       </c>
       <c r="H101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>257.39999999999998</v>
       </c>
-    </row>
-    <row r="102" spans="7:8">
+      <c r="K101">
+        <f t="shared" si="8"/>
+        <v>2.5739999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="G102">
         <v>53280</v>
       </c>
       <c r="H102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>266.39999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="7:8">
+      <c r="K102">
+        <f t="shared" si="8"/>
+        <v>2.6376237623762373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>102</v>
+      </c>
       <c r="G103">
         <v>55080</v>
       </c>
       <c r="H103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>275.39999999999998</v>
       </c>
-    </row>
-    <row r="104" spans="7:8">
+      <c r="K103">
+        <f t="shared" si="8"/>
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>103</v>
+      </c>
       <c r="G104">
         <v>57060</v>
       </c>
       <c r="H104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>285.3</v>
       </c>
-    </row>
-    <row r="105" spans="7:8">
+      <c r="K104">
+        <f t="shared" si="8"/>
+        <v>2.7699029126213595</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="G105">
         <v>59040</v>
       </c>
       <c r="H105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>295.2</v>
       </c>
-    </row>
-    <row r="106" spans="7:8">
+      <c r="K105">
+        <f t="shared" si="8"/>
+        <v>2.8384615384615381</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="G106">
         <v>61020</v>
       </c>
       <c r="H106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>305.10000000000002</v>
       </c>
-    </row>
-    <row r="107" spans="7:8">
+      <c r="K106">
+        <f t="shared" si="8"/>
+        <v>2.9057142857142861</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="G107">
         <v>63000</v>
       </c>
       <c r="H107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>315</v>
       </c>
-    </row>
-    <row r="108" spans="7:8">
+      <c r="K107">
+        <f t="shared" si="8"/>
+        <v>2.9716981132075473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="G108">
         <v>64980</v>
       </c>
       <c r="H108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>324.89999999999998</v>
       </c>
-    </row>
-    <row r="109" spans="7:8">
+      <c r="K108">
+        <f t="shared" si="8"/>
+        <v>3.0364485981308409</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="G109">
         <v>66960</v>
       </c>
       <c r="H109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>334.8</v>
       </c>
-    </row>
-    <row r="110" spans="7:8">
+      <c r="K109">
+        <f t="shared" si="8"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="G110">
         <v>68940</v>
       </c>
       <c r="H110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>344.7</v>
       </c>
-    </row>
-    <row r="111" spans="7:8">
+      <c r="K110">
+        <f t="shared" si="8"/>
+        <v>3.1623853211009174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>110</v>
+      </c>
       <c r="G111">
         <v>70920</v>
       </c>
       <c r="H111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>354.6</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="8"/>
+        <v>3.2236363636363636</v>
       </c>
     </row>
   </sheetData>
